--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>初次游玩AVG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_delay</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +519,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -540,6 +544,9 @@
       <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
@@ -557,6 +564,9 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
@@ -619,7 +629,9 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
       <c r="F6" s="3">
         <v>5</v>
       </c>

--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -53,14 +53,6 @@
   </si>
   <si>
     <t>文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是的是的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好的好的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -132,12 +124,74 @@
     <t>time_delay</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>这大炮怎么用来着</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>哦对，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;color=#ff3333&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拖动屏幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/color&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>瞄准敌人</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈，我太强了，我要打十个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯，我毕竟是实习生，不熟悉也正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +222,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -220,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -239,6 +306,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -519,7 +592,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +603,7 @@
     <col min="4" max="4" width="20.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -542,36 +615,36 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -582,16 +655,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -599,10 +672,10 @@
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -615,10 +688,10 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -627,19 +700,52 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>5</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
     </row>

--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>text_str</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字体颜色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -179,11 +175,32 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>哈，我太强了，我要打十个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗯，我毕竟是实习生，不熟悉也正常</t>
+    <t>字体颜色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我虽然是实习生，但没想到还挺能干的嘛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芜湖！来吧！来挑战我吧！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我太强了，我要打十个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可能的，兄弟
+这是我的第一战，我可不想撤退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不不不~</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘿，我都说了我不会放弃的了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -312,6 +329,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,7 +612,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,10 +638,10 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
@@ -629,22 +649,22 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -658,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -672,10 +692,10 @@
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -691,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -706,10 +726,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -720,13 +740,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -740,23 +760,73 @@
         <v>10</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
+    <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
+      <c r="B12" s="3">
+        <v>3001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
+      <c r="B13" s="3">
+        <v>4001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>

--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -612,7 +612,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>26</v>
@@ -822,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>27</v>

--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -201,6 +201,11 @@
   </si>
   <si>
     <t>嘿，我都说了我不会放弃的了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我只是忘了些东西
+等会再来揍你们</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -801,22 +806,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="3">
-        <v>3001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>26</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
-        <v>4001</v>
+        <v>3001</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -825,14 +820,47 @@
         <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>4001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
+        <v>5001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -206,6 +206,18 @@
   <si>
     <t>我只是忘了些东西
 等会再来揍你们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊，我还会再回来的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强大的我，哈哈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>留得青山在，不怕没柴烧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -336,6 +348,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -343,7 +358,18 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -614,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -862,8 +888,53 @@
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
     </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <v>6001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="3">
+        <v>7001</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="3">
+        <v>8001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -119,9 +119,6 @@
   <si>
     <t>time_delay</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这大炮怎么用来着</t>
   </si>
   <si>
     <r>
@@ -179,10 +176,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我虽然是实习生，但没想到还挺能干的嘛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>芜湖！来吧！来挑战我吧！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -204,11 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>我只是忘了些东西
-等会再来揍你们</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>啊，我还会再回来的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -218,6 +206,23 @@
   </si>
   <si>
     <t>留得青山在，不怕没柴烧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊，这个，怎么使来着</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还挺简单的嘛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像忘了什么东西
+嗯，等会再来揍你们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有啥好东西么</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +363,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -640,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -741,8 +756,8 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
+      <c r="G5" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -760,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -771,13 +786,13 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2">
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -788,13 +803,13 @@
         <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2">
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -805,13 +820,13 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -846,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -864,7 +879,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -881,8 +896,8 @@
       <c r="F17" s="2">
         <v>2</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>28</v>
+      <c r="G17" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
@@ -899,7 +914,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
@@ -913,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -927,12 +942,29 @@
         <v>2</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="3">
+        <v>9001</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:B24 B26:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -223,6 +223,14 @@
   </si>
   <si>
     <t>有啥好东西么</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进什么货了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗯，是得补给一下</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +371,27 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -655,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -947,7 +975,7 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
-        <v>9001</v>
+        <v>901001</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -959,12 +987,46 @@
         <v>32</v>
       </c>
     </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="3">
+        <v>902001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="3">
+        <v>903001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B24 B26:B1048576">
+  <conditionalFormatting sqref="B1:B24 B26 B29:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="B28">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -231,6 +231,21 @@
   </si>
   <si>
     <t>嗯，是得补给一下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降神失败了吗？
+没关系，我们总是可以凭借自己的努力攻克难关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么突然收到一张字条：
+【wow！感谢大哥支持！
+可以加丘丘群：1021392676】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落款是……【茜楠公馆】？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +386,97 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -683,16 +788,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="7.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
@@ -1015,18 +1120,69 @@
         <v>34</v>
       </c>
     </row>
+    <row r="30" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>1001001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>1001002</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>1002001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B24 B26 B29:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  <conditionalFormatting sqref="B33:B1048576 B1:B24 B26 B29:B30">
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -241,11 +241,8 @@
   <si>
     <t>怎么突然收到一张字条：
 【wow！感谢大哥支持！
-可以加丘丘群：1021392676】</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>落款是……【茜楠公馆】？</t>
+可以加丘丘群：&lt;color=#ff3333&gt;1021392676&lt;/color&gt;】
+落款是……【茜楠公馆】？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -386,77 +383,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -788,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1120,7 +1047,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>1001001</v>
       </c>
@@ -1128,15 +1055,15 @@
         <v>2</v>
       </c>
       <c r="F30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
-        <v>1001002</v>
+        <v>1002001</v>
       </c>
       <c r="D31" s="2">
         <v>2</v>
@@ -1145,42 +1072,25 @@
         <v>2</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
-        <v>1002001</v>
-      </c>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2</v>
-      </c>
-      <c r="G32" s="9" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B33:B1048576 B1:B24 B26 B29:B30">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+  <conditionalFormatting sqref="B32:B1048576 B1:B24 B26 B29:B30">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/_ConfigExcels/Datas/avg_event.xlsx
+++ b/_ConfigExcels/Datas/avg_event.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>啊，我还会再回来的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>强大的我，哈哈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -210,15 +206,6 @@
   </si>
   <si>
     <t>啊，这个，怎么使来着</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>还挺简单的嘛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好像忘了什么东西
-嗯，等会再来揍你们</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -236,6 +223,58 @@
   <si>
     <t>降神失败了吗？
 没关系，我们总是可以凭借自己的努力攻克难关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇哦，我感觉充满了力量！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是什么？
+让我&lt;color=#ff3333&gt;选一张强化吱星&lt;/color&gt;吗？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有啦我逗你的:&gt;
+被强化的又不是我</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还挺简单的嘛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>还挺简单的嘛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不够打不够打！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太菜了，建议对面回去再练100年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我只是忘了什么东西
+等会再来揍你们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我还会再回来的！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们最好别嚣张
+三十年河东，三十年河西</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -243,6 +282,10 @@
 【wow！感谢大哥支持！
 可以加丘丘群：&lt;color=#ff3333&gt;1021392676&lt;/color&gt;】
 落款是……【茜楠公馆】？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇噢，是0伤害欸</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +426,67 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="输出" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -715,10 +818,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,7 +835,7 @@
     <col min="4" max="4" width="20.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="52.125" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -806,7 +912,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
-        <v>1001</v>
+        <v>100001</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3">
@@ -817,12 +923,12 @@
         <v>2</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
-        <v>1002</v>
+        <v>100002</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -839,6 +945,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
@@ -852,10 +961,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
@@ -873,6 +985,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" s="3">
         <v>1005</v>
       </c>
@@ -894,7 +1009,7 @@
     </row>
     <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
-        <v>2001</v>
+        <v>200001</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
@@ -912,7 +1027,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
-        <v>3001</v>
+        <v>201001</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
@@ -930,7 +1045,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
-        <v>4001</v>
+        <v>202001</v>
       </c>
       <c r="D15" s="2">
         <v>2</v>
@@ -946,26 +1061,16 @@
       <c r="B16" s="3"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
-        <v>5001</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>31</v>
-      </c>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
-        <v>6001</v>
+        <v>600001</v>
       </c>
       <c r="D19" s="2">
         <v>2</v>
@@ -974,12 +1079,26 @@
         <v>2</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>26</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <v>601001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
-        <v>7001</v>
+        <v>602001</v>
       </c>
       <c r="D21" s="2">
         <v>2</v>
@@ -991,9 +1110,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
-        <v>8001</v>
+        <v>620001</v>
       </c>
       <c r="D23" s="2">
         <v>2</v>
@@ -1002,12 +1125,16 @@
         <v>2</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>28</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="3">
-        <v>901001</v>
+        <v>621001</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -1016,12 +1143,12 @@
         <v>2</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="3">
-        <v>902001</v>
+        <v>700001</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
@@ -1030,69 +1157,203 @@
         <v>2</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="3">
+        <v>701001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="3">
+        <v>702001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
+        <v>703001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="3">
+        <v>901001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="3">
+        <v>902001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="3"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
         <v>903001</v>
       </c>
-      <c r="D28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B39" s="2">
         <v>1001001</v>
       </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
         <v>4</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G39" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B40" s="2">
+        <v>1002001</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B42" s="2">
+        <v>1101001</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
-        <v>1002001</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31" s="9" t="s">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="2">
+        <v>1201001</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B45" s="2">
+        <v>1201002</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>4</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B32:B1048576 B1:B24 B26 B29:B30">
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  <conditionalFormatting sqref="B41:B44 B34 B38:B39 B46:B1048576 B31:B32 B1:B28">
+    <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="B35:B36">
+    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B46:B1048576 B31:B44 B1:B28">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
